--- a/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37C1_2023-Estudios-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9522</v>
+        <v>10080</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003125804680845024</v>
+        <v>0.003125804680845025</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01697803888409744</v>
+        <v>0.01797213341466547</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1426</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4387</v>
+        <v>4238</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.001753719378169133</v>
+        <v>0.001753719378169134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.000534575605205084</v>
+        <v>0.0005279417656605256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005393529025280956</v>
+        <v>0.005211174849114636</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>3179</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10980</v>
+        <v>10591</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00231372827967075</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0006459430568024801</v>
+        <v>0.0006574569420381533</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007990329439795061</v>
+        <v>0.007707570031691404</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6700</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3095</v>
+        <v>2965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12486</v>
+        <v>12847</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01194615277855215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00551870750068193</v>
+        <v>0.005286731362057854</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02226282592978298</v>
+        <v>0.02290526084622525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>3248</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1012</v>
+        <v>1088</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7679</v>
+        <v>7259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003993040211627695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001244041608347984</v>
+        <v>0.001337740427001351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.009441785381484656</v>
+        <v>0.00892493262726495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -854,19 +854,19 @@
         <v>9948</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5409</v>
+        <v>5358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16949</v>
+        <v>16888</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007239058388074944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003935945181455069</v>
+        <v>0.003899414961680973</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01233398443112629</v>
+        <v>0.01228997999244389</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>39152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28574</v>
+        <v>28195</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52245</v>
+        <v>53186</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06980687671790156</v>
+        <v>0.06980687671790159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05094706945328187</v>
+        <v>0.05027183945911565</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09315183350167788</v>
+        <v>0.09483014907009669</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -904,19 +904,19 @@
         <v>31610</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24525</v>
+        <v>24111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41329</v>
+        <v>41792</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03886573842732881</v>
+        <v>0.03886573842732882</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03015418286266138</v>
+        <v>0.02964522998478001</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05081585885015624</v>
+        <v>0.05138522658774129</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>94</v>
@@ -925,19 +925,19 @@
         <v>70762</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56922</v>
+        <v>57513</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87350</v>
+        <v>87623</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05149419004875565</v>
+        <v>0.05149419004875563</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0414233060721263</v>
+        <v>0.0418533548229877</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06356569841587044</v>
+        <v>0.06376449099882003</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>94236</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77046</v>
+        <v>77787</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112254</v>
+        <v>112601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1680218602735373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1373722125325837</v>
+        <v>0.1386934878443446</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2001477878175307</v>
+        <v>0.2007655000857992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>232</v>
@@ -975,19 +975,19 @@
         <v>142073</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125246</v>
+        <v>125734</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159556</v>
+        <v>160265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.174685345503359</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1539959981746425</v>
+        <v>0.1545957258133308</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1961818113468099</v>
+        <v>0.1970535030355589</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>335</v>
@@ -996,19 +996,19 @@
         <v>236309</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213333</v>
+        <v>212438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>259949</v>
+        <v>262543</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1719656814733988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.155245739224361</v>
+        <v>0.1545944841588134</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1891687678906485</v>
+        <v>0.191056167898483</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>419017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401007</v>
+        <v>398105</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440168</v>
+        <v>438834</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.747099305549164</v>
+        <v>0.7470993055491641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7149887595140179</v>
+        <v>0.7098140679719753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7848119645243656</v>
+        <v>0.7824325593330862</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1120</v>
@@ -1046,19 +1046,19 @@
         <v>634951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>615442</v>
+        <v>615335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>652158</v>
+        <v>652840</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7807021564795151</v>
+        <v>0.7807021564795155</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7567151565681741</v>
+        <v>0.7565835939450192</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8018587931725826</v>
+        <v>0.8026974783883956</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1644</v>
@@ -1067,19 +1067,19 @@
         <v>1053967</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1024935</v>
+        <v>1023838</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1079278</v>
+        <v>1081989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7669873418101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7458602847541819</v>
+        <v>0.7450621049675584</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7854067241435478</v>
+        <v>0.7873789306331518</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>5366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2005</v>
+        <v>1942</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13229</v>
+        <v>11848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00242164741952572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0009048596064044121</v>
+        <v>0.000876453995327342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.005969685499113261</v>
+        <v>0.005346753405281875</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>9360</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4278</v>
+        <v>4954</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17330</v>
+        <v>17135</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004318724231502319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001974136006534718</v>
+        <v>0.002285646972450802</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007996493800380885</v>
+        <v>0.00790621583073756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1213,19 +1213,19 @@
         <v>14726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8149</v>
+        <v>8148</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24629</v>
+        <v>24942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003359633525748624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001859083216484822</v>
+        <v>0.00185895050956951</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005618907091096424</v>
+        <v>0.005690417098161836</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>18174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10301</v>
+        <v>10579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29009</v>
+        <v>28215</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.008201446478069948</v>
+        <v>0.008201446478069949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004648585934328577</v>
+        <v>0.004773764916060443</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01309088298337991</v>
+        <v>0.01273266166758639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1263,19 +1263,19 @@
         <v>8929</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4877</v>
+        <v>5135</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14679</v>
+        <v>15691</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004120053923342889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002250481399994872</v>
+        <v>0.002369539930931029</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.006773134103432638</v>
+        <v>0.007240327389954256</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -1284,19 +1284,19 @@
         <v>27103</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18734</v>
+        <v>18454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39636</v>
+        <v>38865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006183452538021298</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004274090168850229</v>
+        <v>0.004210055858034724</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009042721764401877</v>
+        <v>0.008866753565100659</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>110237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87126</v>
+        <v>87018</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>137028</v>
+        <v>136960</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04974631515441576</v>
+        <v>0.04974631515441577</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03931701973294242</v>
+        <v>0.03926811664022258</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06183613918246304</v>
+        <v>0.06180562307687828</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -1334,19 +1334,19 @@
         <v>60400</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47027</v>
+        <v>45867</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79357</v>
+        <v>78100</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02786969526719211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02169929901938134</v>
+        <v>0.02116379138485482</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03661669456386354</v>
+        <v>0.03603699826662662</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>162</v>
@@ -1355,19 +1355,19 @@
         <v>170637</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>143000</v>
+        <v>143437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>204588</v>
+        <v>200998</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03892969171787954</v>
+        <v>0.03892969171787955</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03262459144271584</v>
+        <v>0.0327241940978294</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04667538175539026</v>
+        <v>0.04585632941535366</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>518612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>475719</v>
+        <v>472625</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>569082</v>
+        <v>561771</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2340324425828344</v>
+        <v>0.2340324425828345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2146762466430071</v>
+        <v>0.2132797356978074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2568077721765998</v>
+        <v>0.2535086604346651</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>707</v>
@@ -1405,19 +1405,19 @@
         <v>475382</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>440988</v>
+        <v>441837</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>511211</v>
+        <v>508667</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2193509460051111</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2034807309506248</v>
+        <v>0.2038725375184149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.23588305232866</v>
+        <v>0.2347091680469714</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1185</v>
@@ -1426,19 +1426,19 @@
         <v>993995</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>942517</v>
+        <v>942687</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1053219</v>
+        <v>1055340</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2267733586482649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2150290795754077</v>
+        <v>0.2150679321626035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2402849091930318</v>
+        <v>0.2407687733280734</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>1563595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1515708</v>
+        <v>1514456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1611402</v>
+        <v>1607984</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7055981483651541</v>
+        <v>0.7055981483651543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6839885040828259</v>
+        <v>0.6834232722339421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7271720069660141</v>
+        <v>0.7256296829033556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2111</v>
@@ -1476,19 +1476,19 @@
         <v>1613152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1571490</v>
+        <v>1575513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1648247</v>
+        <v>1648645</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7443405805728517</v>
+        <v>0.7443405805728516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7251169954743071</v>
+        <v>0.7269733157842698</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.760533925086701</v>
+        <v>0.7607176017908951</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3503</v>
@@ -1497,19 +1497,19 @@
         <v>3176747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3118871</v>
+        <v>3112132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3236759</v>
+        <v>3232787</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7247538635700854</v>
+        <v>0.7247538635700855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.711549820080894</v>
+        <v>0.7100123009016396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7384451393836791</v>
+        <v>0.7375390862221159</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>4401</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11365</v>
+        <v>10855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006191217785744238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001857744956929813</v>
+        <v>0.001866427323900315</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01598636253493755</v>
+        <v>0.01526918770978265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3717</v>
+        <v>3348</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0008320316924455261</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005057801932428885</v>
+        <v>0.004555668618219345</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1643,19 +1643,19 @@
         <v>5013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1475</v>
+        <v>2027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12185</v>
+        <v>12643</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003467221831991634</v>
+        <v>0.003467221831991633</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001020368012849973</v>
+        <v>0.00140232688242626</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008427590917278396</v>
+        <v>0.008744949573717586</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>5695</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2228</v>
+        <v>2459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13115</v>
+        <v>13416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.008011320180237395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003134255931582914</v>
+        <v>0.003458523593672215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01844865235752873</v>
+        <v>0.01887172546441367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1693,19 +1693,19 @@
         <v>5137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1893</v>
+        <v>1765</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12435</v>
+        <v>12398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006990407735733569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002576051352813234</v>
+        <v>0.00240148426725115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01692102290057474</v>
+        <v>0.01687078310993475</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1714,19 +1714,19 @@
         <v>10832</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5856</v>
+        <v>6032</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20066</v>
+        <v>20498</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007492405307801543</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004050450090421332</v>
+        <v>0.00417178886752513</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01387851782472729</v>
+        <v>0.01417760269377977</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>16952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10353</v>
+        <v>9128</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27577</v>
+        <v>26663</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02384487131080116</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01456244590171094</v>
+        <v>0.01283912077360036</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03879013001636496</v>
+        <v>0.03750437498043036</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1764,19 +1764,19 @@
         <v>14592</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8251</v>
+        <v>8524</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22857</v>
+        <v>24364</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.01985633338217886</v>
+        <v>0.01985633338217885</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01122779603962885</v>
+        <v>0.01159918201164768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03110301203749669</v>
+        <v>0.03315327897263132</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>34</v>
@@ -1785,19 +1785,19 @@
         <v>31544</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21688</v>
+        <v>21400</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44855</v>
+        <v>44563</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02181755578381441</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0150006281891516</v>
+        <v>0.01480122505949695</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03102458326783636</v>
+        <v>0.03082274712442899</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>165019</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144342</v>
+        <v>141659</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>190102</v>
+        <v>189468</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2321205297662431</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2030354161169372</v>
+        <v>0.1992622168787255</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2674031539342172</v>
+        <v>0.2665108094105272</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -1835,19 +1835,19 @@
         <v>124009</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108029</v>
+        <v>108786</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>141830</v>
+        <v>144611</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1687475624421065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1470027744742939</v>
+        <v>0.1480323410320752</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1929981081793014</v>
+        <v>0.1967829269334664</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>361</v>
@@ -1856,19 +1856,19 @@
         <v>289028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>261678</v>
+        <v>263246</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>320240</v>
+        <v>319895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1999089768246308</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1809921085741434</v>
+        <v>0.1820764349521131</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2214973554480422</v>
+        <v>0.221258500567045</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>518851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>493180</v>
+        <v>493788</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>543323</v>
+        <v>542987</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7298320609569741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6937220090753352</v>
+        <v>0.6945774486307832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7642538527336405</v>
+        <v>0.7637823702271261</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>778</v>
@@ -1906,19 +1906,19 @@
         <v>590528</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>572695</v>
+        <v>569689</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>608485</v>
+        <v>607466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8035736647475354</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7793070687098342</v>
+        <v>0.7752161955908723</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8280092484268411</v>
+        <v>0.8266228491743176</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1272</v>
@@ -1927,19 +1927,19 @@
         <v>1109380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1076392</v>
+        <v>1077085</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1138315</v>
+        <v>1138127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7673138402517619</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7444972823835452</v>
+        <v>0.7449763146961056</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7873272780870713</v>
+        <v>0.7871969613052526</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>11521</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5689</v>
+        <v>5947</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20900</v>
+        <v>22249</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003303242017538322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001631177219953142</v>
+        <v>0.001705127880042502</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.005992408240316499</v>
+        <v>0.006379269464033261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2052,19 +2052,19 @@
         <v>11397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6200</v>
+        <v>6159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19531</v>
+        <v>19635</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.003067602108713547</v>
+        <v>0.003067602108713546</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001668842648772901</v>
+        <v>0.001657718489939154</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005256639823730476</v>
+        <v>0.005284672387247441</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2073,19 +2073,19 @@
         <v>22918</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14751</v>
+        <v>14646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35031</v>
+        <v>34245</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.003181698542060435</v>
+        <v>0.003181698542060434</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002047849066040143</v>
+        <v>0.002033293073227165</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004863206419392131</v>
+        <v>0.004754174050764944</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>30570</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21329</v>
+        <v>21091</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>42903</v>
+        <v>44067</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008764868893896037</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006115453324040728</v>
+        <v>0.006047034266041831</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01230087911129556</v>
+        <v>0.01263480470939078</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -2123,19 +2123,19 @@
         <v>17314</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11174</v>
+        <v>11408</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25504</v>
+        <v>26100</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.004659982977530765</v>
+        <v>0.004659982977530763</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003007577907663607</v>
+        <v>0.003070588696349375</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.006864445150240111</v>
+        <v>0.007024700097274406</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>56</v>
@@ -2144,19 +2144,19 @@
         <v>47884</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>37286</v>
+        <v>35663</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62661</v>
+        <v>61912</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006647561587151698</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005176357115434316</v>
+        <v>0.0049510099239704</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008699022563328116</v>
+        <v>0.008595114414429452</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>166341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>139552</v>
+        <v>139043</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>195024</v>
+        <v>199102</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04769264520523556</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04001177917043774</v>
+        <v>0.03986603076704173</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05591659299097561</v>
+        <v>0.05708575751367853</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>144</v>
@@ -2194,19 +2194,19 @@
         <v>106602</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>88920</v>
+        <v>89294</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>130012</v>
+        <v>127963</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02869176571043895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02393268299703025</v>
+        <v>0.02403342160067739</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03499272180571694</v>
+        <v>0.03444114618862642</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>290</v>
@@ -2215,19 +2215,19 @@
         <v>272942</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>238087</v>
+        <v>240695</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>308607</v>
+        <v>314005</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03789195846056609</v>
+        <v>0.03789195846056608</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03305307231482419</v>
+        <v>0.03341512775579732</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04284319197955578</v>
+        <v>0.04359268098930421</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>777868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>728161</v>
+        <v>723720</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>837010</v>
+        <v>832884</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2230277451687083</v>
+        <v>0.2230277451687084</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2087760823954454</v>
+        <v>0.2075025220240095</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2399847716839252</v>
+        <v>0.2388017190506759</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1140</v>
@@ -2265,19 +2265,19 @@
         <v>741464</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>696886</v>
+        <v>699324</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>785605</v>
+        <v>782399</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1995646533522889</v>
+        <v>0.199564653352289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1875665613827557</v>
+        <v>0.1882227366056649</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2114450599760671</v>
+        <v>0.210582252298214</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1881</v>
@@ -2286,19 +2286,19 @@
         <v>1519332</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1449256</v>
+        <v>1455932</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1585310</v>
+        <v>1591289</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2109254415349677</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2011969541439129</v>
+        <v>0.2021237353966069</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2200850511297291</v>
+        <v>0.2209150427493153</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>2501464</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2441283</v>
+        <v>2436886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2564459</v>
+        <v>2559203</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7172114987146218</v>
+        <v>0.7172114987146219</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6999568068192861</v>
+        <v>0.6986958404202921</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7352733671897975</v>
+        <v>0.7337662607720805</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4009</v>
@@ -2336,19 +2336,19 @@
         <v>2838631</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2788896</v>
+        <v>2793539</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2890725</v>
+        <v>2885543</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7640159958510279</v>
+        <v>0.7640159958510278</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7506297347095089</v>
+        <v>0.7518793649763196</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7780371067181931</v>
+        <v>0.7766423931919476</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6419</v>
@@ -2357,19 +2357,19 @@
         <v>5340094</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5271848</v>
+        <v>5261556</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5417012</v>
+        <v>5411410</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.741353339875254</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.731878878189384</v>
+        <v>0.7304501134079459</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7520316807517348</v>
+        <v>0.7512540228050516</v>
       </c>
     </row>
     <row r="27">
